--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-3.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,14 +476,14 @@
         <v>0.466</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>74.05155535662558</v>
+        <v>74.05155535662806</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-70.54119497204557</v>
+        <v>-70.53858373180474</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.466</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>74.02423349050963</v>
+        <v>74.0242334905121</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-70.49151009611892</v>
+        <v>-70.48854237188208</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.466</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>73.98669228378814</v>
+        <v>73.98669228379062</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-70.4364219114108</v>
+        <v>-70.43342453028372</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.466</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>73.93169782171076</v>
+        <v>73.93169782171323</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-70.37786351958603</v>
+        <v>-70.37473462245141</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.466</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>73.87602674882746</v>
+        <v>73.87602674882993</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-70.31063934480257</v>
+        <v>-70.30746743964056</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.466</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>73.82836640043423</v>
+        <v>73.82836640043671</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-70.25206101036859</v>
+        <v>-70.24886840084082</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.466</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>73.79035683614578</v>
+        <v>73.79035683614825</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-70.19744975366038</v>
+        <v>-70.19430431053864</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.466</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>73.73984592695656</v>
+        <v>73.73984592695902</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-70.13981564679959</v>
+        <v>-70.13659215796379</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.466</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>73.70290440338877</v>
+        <v>73.70290440339124</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-70.09024274227292</v>
+        <v>-70.08688022256395</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.466</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>73.66246266498672</v>
+        <v>73.66246266498919</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-70.03918134929722</v>
+        <v>-70.03583269490807</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.466</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>73.62718518148002</v>
+        <v>73.6271851814825</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-70.00744604902231</v>
+        <v>-70.00419321063774</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.466</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>73.59268258427311</v>
+        <v>73.59268258427559</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-69.94952476768421</v>
+        <v>-69.94619099193525</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.466</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>73.55336597296304</v>
+        <v>73.55336597296551</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-69.90504938916473</v>
+        <v>-69.90167508171773</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.466</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>73.51351406497864</v>
+        <v>73.51351406498108</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-69.850015259297</v>
+        <v>-69.84662505189048</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.466</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>73.46760666394947</v>
+        <v>73.46760666395193</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-69.80908252939058</v>
+        <v>-69.80571295950948</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.466</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>73.43884970521925</v>
+        <v>73.43884970522173</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-69.77130555678525</v>
+        <v>-69.7713055567876</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.466</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>73.40663141874253</v>
+        <v>73.40663141874499</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-69.72700420595191</v>
+        <v>-69.72700420595426</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.466</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>73.3742231727604</v>
+        <v>73.37422317276285</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-69.6631474626972</v>
+        <v>-69.65961629540297</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.466</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>73.33742648150043</v>
+        <v>73.33742648150287</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-69.62483472157858</v>
+        <v>-69.62483472158095</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.466</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>73.29170650554322</v>
+        <v>73.29170650554568</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-69.57291523975803</v>
+        <v>-69.57291523976035</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.466</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>73.23771037395898</v>
+        <v>73.23771037396141</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-69.52067684542057</v>
+        <v>-69.5206768454229</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.466</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>73.19396967015373</v>
+        <v>73.19396967015621</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-69.47217950151844</v>
+        <v>-69.47217950152077</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.466</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>73.16606871095701</v>
+        <v>73.16606871095946</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-69.42272033305898</v>
+        <v>-69.42272033306131</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.466</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>73.13100865315057</v>
+        <v>73.13100865315305</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-69.37374003146824</v>
+        <v>-69.37374003147056</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.466</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>73.09380623815261</v>
+        <v>73.09380623815507</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-69.3336050354617</v>
+        <v>-69.333605035464</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.466</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>73.05076373861927</v>
+        <v>73.05076373862174</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-69.2800316923316</v>
+        <v>-69.28003169233394</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.466</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>73.00510973867246</v>
+        <v>73.00510973867492</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-69.22865281232367</v>
+        <v>-69.22865281232599</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.466</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>72.96425604823851</v>
+        <v>72.96425604824097</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-69.1763899538058</v>
+        <v>-69.17638995380813</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.466</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>72.92895295509211</v>
+        <v>72.92895295509457</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-69.11859727333649</v>
+        <v>-69.11859727333882</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.466</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>72.88278167281835</v>
+        <v>72.8827816728208</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-69.06641826733778</v>
+        <v>-69.06641826734008</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.466</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>72.84201670615641</v>
+        <v>72.84201670615886</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-69.01878617826225</v>
+        <v>-69.01878617826455</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.466</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>72.80947961139643</v>
+        <v>72.80947961139887</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-68.9787883400008</v>
+        <v>-68.97878834000313</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.466</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>72.77363536997775</v>
+        <v>72.77363536998017</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-68.92751804395178</v>
+        <v>-68.92751804395408</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.466</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>72.73257293197862</v>
+        <v>72.73257293198107</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-68.86943255186249</v>
+        <v>-68.86943255186479</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.466</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>72.68393845060896</v>
+        <v>72.68393845061144</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-68.81325344700555</v>
+        <v>-68.81325344700787</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.466</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>72.63429175554822</v>
+        <v>72.63429175555063</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.286</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-68.74730545339006</v>
+        <v>-68.74730545339243</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.465</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>72.5734114157147</v>
+        <v>72.57341141571715</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.286</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-68.66452017577249</v>
+        <v>-68.66452017577481</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.465</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>72.50676513868738</v>
+        <v>72.50676513868977</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.286</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-68.59326704897629</v>
+        <v>-68.5932670489786</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.465</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>72.4532155613898</v>
+        <v>72.45321556139223</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-68.52194481165522</v>
+        <v>-68.52194481165753</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.465</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>72.39894883381496</v>
+        <v>72.39894883381739</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-68.45527585341259</v>
+        <v>-68.45527585341489</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.465</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>72.34199272888969</v>
+        <v>72.34199272889214</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-68.38455044595391</v>
+        <v>-68.38455044595621</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.465</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>72.28647233681725</v>
+        <v>72.28647233681968</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-68.32148204007757</v>
+        <v>-68.32148204007989</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.465</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>72.22803427553602</v>
+        <v>72.22803427553845</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-68.24846133392184</v>
+        <v>-68.24846133392413</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.465</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>72.18030318140435</v>
+        <v>72.18030318140677</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-68.1942347833207</v>
+        <v>-68.194234783323</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.465</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>72.13136382957452</v>
+        <v>72.13136382957693</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-68.12513077823411</v>
+        <v>-68.1251307782364</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.465</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>72.07195297994433</v>
+        <v>72.07195297994676</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-68.05638607030889</v>
+        <v>-68.05638607031118</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.465</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>72.01629694223512</v>
+        <v>72.01629694223755</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-67.99249059661707</v>
+        <v>-67.99249059661936</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.465</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>71.96573336253847</v>
+        <v>71.96573336254089</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-67.93736837617794</v>
+        <v>-67.93736837618019</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-3.xlsx
@@ -447,23 +447,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -476,14 +476,14 @@
         <v>0.466</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>74.05155535662806</v>
+        <v>73.97030458472344</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-70.53858373180474</v>
+        <v>70.36860638439228</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.466</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>74.0242334905121</v>
+        <v>73.97785150588655</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-70.48854237188208</v>
+        <v>70.36859908191074</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.466</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>73.98669228379062</v>
+        <v>73.96131956316573</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-70.43342453028372</v>
+        <v>70.32341033484276</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.466</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>73.93169782171323</v>
+        <v>73.90678416712267</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-70.37473462245141</v>
+        <v>70.29826154504293</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.466</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>73.87602674882993</v>
+        <v>73.84409611588768</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-70.30746743964056</v>
+        <v>70.22866026523977</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.466</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>73.82836640043671</v>
+        <v>73.78961906836523</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-70.24886840084082</v>
+        <v>70.15498418589701</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.466</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>73.79035683614825</v>
+        <v>73.78045270247456</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-70.19430431053864</v>
+        <v>70.12750668801257</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.466</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>73.73984592695902</v>
+        <v>73.72337031304349</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-70.13659215796379</v>
+        <v>70.05911010950535</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.466</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>73.70290440339124</v>
+        <v>73.69118432478456</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-70.08688022256395</v>
+        <v>70.05151876594775</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.466</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>73.66246266498919</v>
+        <v>73.67796162088871</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-70.03583269490807</v>
+        <v>69.96753804640635</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.466</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>73.6271851814825</v>
+        <v>73.66787927468717</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-70.00419321063774</v>
+        <v>69.93329802732022</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.466</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>73.59268258427559</v>
+        <v>73.58216430002683</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-69.94619099193525</v>
+        <v>69.89845175995571</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.466</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>73.55336597296551</v>
+        <v>73.54568356912496</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-69.90167508171773</v>
+        <v>69.83072814523739</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.466</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>73.51351406498108</v>
+        <v>73.52058452231309</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-69.84662505189048</v>
+        <v>69.80411459600795</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.466</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>73.46760666395193</v>
+        <v>73.48124117101378</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-69.80571295950948</v>
+        <v>69.71693806088797</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.466</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>73.43884970522173</v>
+        <v>73.46150786141068</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
-        <v>0.284</v>
+        <v>0.285</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-69.7713055567876</v>
+        <v>69.69203127542647</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.466</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>73.40663141874499</v>
+        <v>73.45463293504737</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-69.72700420595426</v>
+        <v>69.6608556545637</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.466</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>73.37422317276285</v>
+        <v>73.39432170687542</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
-        <v>0.284</v>
+        <v>0.285</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-69.65961629540297</v>
+        <v>69.59358292989452</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.466</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>73.33742648150287</v>
+        <v>73.39487821001447</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-69.62483472158095</v>
+        <v>69.56653343484037</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.466</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>73.29170650554568</v>
+        <v>73.31624406211182</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-69.57291523976035</v>
+        <v>69.48744282994487</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.466</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>73.23771037396141</v>
+        <v>73.24013599223052</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-69.5206768454229</v>
+        <v>69.42034323696441</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.466</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>73.19396967015621</v>
+        <v>73.21495677089698</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-69.47217950152077</v>
+        <v>69.37578127180468</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.466</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>73.16606871095946</v>
+        <v>73.20844815015342</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-69.42272033306131</v>
+        <v>69.33252602335074</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.466</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>73.13100865315305</v>
+        <v>73.15718993275539</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-69.37374003147056</v>
+        <v>69.31672598773582</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.466</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>73.09380623815507</v>
+        <v>73.14588028608132</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-69.333605035464</v>
+        <v>69.26835841868184</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.466</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>73.05076373862174</v>
+        <v>73.09792366821938</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-69.28003169233394</v>
+        <v>69.22088400572258</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.466</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>73.00510973867492</v>
+        <v>73.05427742282603</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-69.22865281232599</v>
+        <v>69.16607403848633</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.466</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>72.96425604824097</v>
+        <v>72.84575354085106</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-69.17638995380813</v>
+        <v>69.10529807466136</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.466</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>72.92895295509457</v>
+        <v>72.83588141099725</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-69.11859727333882</v>
+        <v>69.06591446782549</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.466</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>72.8827816728208</v>
+        <v>72.79384965695887</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-69.06641826734008</v>
+        <v>68.9969626870429</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.466</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>72.84201670615886</v>
+        <v>72.76670792474978</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-69.01878617826455</v>
+        <v>68.95234982202915</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.466</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>72.80947961139887</v>
+        <v>72.72218776930991</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-68.97878834000313</v>
+        <v>68.90160020549905</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.466</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>72.77363536998017</v>
+        <v>72.69378313833109</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-68.92751804395408</v>
+        <v>68.84382894136618</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.466</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>72.73257293198107</v>
+        <v>72.66510270093673</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-68.86943255186479</v>
+        <v>68.81767989652356</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.466</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>72.68393845061144</v>
+        <v>72.60067702958797</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.285</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-68.81325344700787</v>
+        <v>68.79614033184062</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.466</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>72.63429175555063</v>
+        <v>72.56052890028968</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.286</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-68.74730545339243</v>
+        <v>68.73885609552102</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.465</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>72.57341141571715</v>
+        <v>72.50149292654066</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.286</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-68.66452017577481</v>
+        <v>68.63537441714573</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.465</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>72.50676513868977</v>
+        <v>72.44316384875118</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
-        <v>0.286</v>
+        <v>0.287</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-68.5932670489786</v>
+        <v>68.59986764265503</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.465</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>72.45321556139223</v>
+        <v>72.40006917531689</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-68.52194481165753</v>
+        <v>68.48040608260686</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.465</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>72.39894883381739</v>
+        <v>72.31409951529503</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-68.45527585341489</v>
+        <v>68.41051579247636</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.465</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>72.34199272889214</v>
+        <v>72.29496679675098</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-68.38455044595621</v>
+        <v>68.37621251359315</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.465</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>72.28647233681968</v>
+        <v>72.22336044924045</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-68.32148204007989</v>
+        <v>68.30052290697212</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.465</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>72.22803427553845</v>
+        <v>72.18937996678285</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-68.24846133392413</v>
+        <v>68.25117475256546</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.465</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>72.18030318140677</v>
+        <v>72.12433820973091</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-68.194234783323</v>
+        <v>68.20395065647324</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.465</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>72.13136382957693</v>
+        <v>72.1235812842007</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-68.1251307782364</v>
+        <v>68.08487373549481</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.465</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>72.07195297994676</v>
+        <v>72.07047293307851</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-68.05638607031118</v>
+        <v>68.04742200191717</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.465</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>72.01629694223755</v>
+        <v>72.0325410577115</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-67.99249059661936</v>
+        <v>68.00192379099207</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.465</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>71.96573336254089</v>
+        <v>71.96979727553904</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.287</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-67.93736837618019</v>
+        <v>67.9648265260272</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
